--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_1_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_1_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003152318050418934</v>
+        <v>0.0001097546089009471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003152318050418934</v>
+        <v>0.0001097546089009471</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.31475612046258</v>
+        <v>51.3595395211851</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[18.59039082761481, 58.039121413310355]</t>
+          <t>[26.351031116638424, 76.36804792573177]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0003059944161523109</v>
+        <v>0.0001522200079715486</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003059944161523109</v>
+        <v>0.0001522200079715486</v>
       </c>
       <c r="P2" t="n">
-        <v>1.566079220708425</v>
+        <v>1.490605523324886</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 2.207605648468503]</t>
+          <t>[0.8993948938205003, 2.081816152829272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.213001740341113e-05</v>
+        <v>7.089210066091312e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.213001740341113e-05</v>
+        <v>7.089210066091312e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>46.20066887564224</v>
+        <v>64.81571568110809</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[34.11051735105885, 58.29082040022562]</t>
+          <t>[49.81730060115501, 79.81413076106116]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.563376757171227e-10</v>
+        <v>3.33377769834442e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>9.563376757171227e-10</v>
+        <v>3.33377769834442e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.08708708708718</v>
+        <v>17.13165165165171</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.76324324324332</v>
+        <v>15.01829829829835</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.41093093093103</v>
+        <v>19.24500500500507</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007494614575084158</v>
+        <v>0.02405451339997511</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007494614575084158</v>
+        <v>0.02405451339997511</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>35.45265910914762</v>
+        <v>29.16022859184519</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.4519990763485, 63.453319141946736]</t>
+          <t>[2.291902773396039, 56.02855441029434]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0142429352141511</v>
+        <v>0.0340656162125923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0142429352141511</v>
+        <v>0.0340656162125923</v>
       </c>
       <c r="P3" t="n">
-        <v>2.03150035457358</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.874289975356427]</t>
+          <t>[0.6352369529781159, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.488977228514266e-05</v>
+        <v>0.003586295186198019</v>
       </c>
       <c r="S3" t="n">
-        <v>1.488977228514266e-05</v>
+        <v>0.003586295186198019</v>
       </c>
       <c r="T3" t="n">
-        <v>73.60563326179292</v>
+        <v>56.92540049893095</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[58.48280351711103, 88.72846300647481]</t>
+          <t>[42.62456117249222, 71.22623982536969]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>3.253326497087983e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>3.253326497087983e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>15.40116116116124</v>
+        <v>15.87263263263268</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.34826826826833</v>
+        <v>11.55599599599603</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.45405405405415</v>
+        <v>20.18926926926934</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01010275600254606</v>
+        <v>3.13237495686014e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01010275600254606</v>
+        <v>3.13237495686014e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>33.79647463188351</v>
+        <v>48.23120380098898</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[4.8571460950514265, 62.735803168715584]</t>
+          <t>[21.7040612407, 74.75834636127796]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02310042632329723</v>
+        <v>0.0006558070537809879</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02310042632329723</v>
+        <v>0.0006558070537809879</v>
       </c>
       <c r="P4" t="n">
-        <v>2.157289850212811</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.3522370781217319, 2.96234262230389]</t>
+          <t>[1.9182898084982725, 2.924605773612119]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.426312792236374e-06</v>
+        <v>1.368904989362818e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>2.426312792236374e-06</v>
+        <v>1.368904989362818e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>51.81600410314346</v>
+        <v>59.20191066838621</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.803891666223294, 66.82811654006362]</t>
+          <t>[45.65280598364599, 72.75101535312643]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.200890609176497e-08</v>
+        <v>2.429345613563783e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.200890609176497e-08</v>
+        <v>2.429345613563783e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>14.94550550550558</v>
+        <v>13.80424424424429</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.02930930930937</v>
+        <v>12.00564564564569</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.8617017017018</v>
+        <v>15.60284284284289</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.734524003433769e-05</v>
+        <v>6.121321586394224e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.734524003433769e-05</v>
+        <v>6.121321586394224e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.00338719523472</v>
+        <v>43.3976678894764</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.12121848015552, 62.88555591031391]</t>
+          <t>[24.257125755082477, 62.53821002387033]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001988010819600206</v>
+        <v>3.83438594315777e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001988010819600206</v>
+        <v>3.83438594315777e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.849132076228581</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.270500396288119, 3.4277637561690435]</t>
+          <t>[2.446605690183042, 3.5032374535525816]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.741274205523951e-13</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.741274205523951e-13</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>61.04074854042302</v>
+        <v>57.16036169620677</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.21171790574779, 72.86977917509826]</t>
+          <t>[45.86159471067129, 68.45912868174224]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.532107773982716e-13</v>
+        <v>2.879918525877656e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.532107773982716e-13</v>
+        <v>2.879918525877656e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>12.43939939939946</v>
+        <v>11.82578578578582</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.34338338338344</v>
+        <v>9.93725725725729</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.53541541541549</v>
+        <v>13.71431431431436</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01398761869514609</v>
+        <v>0.01945163481364709</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01398761869514609</v>
+        <v>0.01945163481364709</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>33.24555804359688</v>
+        <v>27.19800559277141</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[5.93604033835787, 60.55507574883589]</t>
+          <t>[2.844485381484084, 51.551525804058734]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0181559398012634</v>
+        <v>0.02942959339717999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0181559398012634</v>
+        <v>0.02942959339717999</v>
       </c>
       <c r="P6" t="n">
-        <v>2.962342622303889</v>
+        <v>-2.905737349266235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8176582119868878, 4.107027032620891]</t>
+          <t>[-4.138474406530699, -1.6730002920017717]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.522281841667919e-06</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>4.522281841667919e-06</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>59.43556432411747</v>
+        <v>54.63288848940283</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.62023824506879, 75.25089040316615]</t>
+          <t>[41.134330555364826, 68.13144642344083]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.470865429453738e-09</v>
+        <v>2.075435379111923e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.470865429453738e-09</v>
+        <v>2.075435379111923e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>12.02930930930937</v>
+        <v>10.38690690690694</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882842842842884</v>
+        <v>5.980340340340359</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.17577577577586</v>
+        <v>14.79347347347352</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.76000000000012</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002067597493230378</v>
+        <v>1.141585476260865e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002067597493230378</v>
+        <v>1.141585476260865e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>38.01020057837925</v>
+        <v>54.2763601707308</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.614268326933072, 63.40613282982544]</t>
+          <t>[31.012033697429715, 77.54068664403188]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004218862956198777</v>
+        <v>2.488435445791026e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004218862956198777</v>
+        <v>2.488435445791026e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.981211046649774</v>
+        <v>-2.805105752754851</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.811421717868698, -2.1510003754308498]</t>
+          <t>[-3.2956847857478513, -2.31452671976185]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.612853876651002e-09</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>4.612853876651002e-09</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>62.80311481098704</v>
+        <v>65.62917440210805</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.14341454685268, 77.4628150751214]</t>
+          <t>[52.818201093497365, 78.44014771071873]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.271649700626767e-11</v>
+        <v>1.931788062847772e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>4.271649700626767e-11</v>
+        <v>1.931788062847772e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>10.7990390390391</v>
+        <v>10.02718718718722</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.791711711711754</v>
+        <v>8.273553553553583</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.80636636636644</v>
+        <v>11.78082082082086</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.581269620778205e-05</v>
+        <v>0.0002090287051502715</v>
       </c>
       <c r="I8" t="n">
-        <v>3.581269620778205e-05</v>
+        <v>0.0002090287051502715</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.96424124515141</v>
+        <v>37.74762089259059</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[26.745673196530134, 79.18280929377269]</t>
+          <t>[19.246136902628812, 56.249104882552366]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001882460306461553</v>
+        <v>0.0001657479154211217</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001882460306461553</v>
+        <v>0.0001657479154211217</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.767368904063081</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.308263735311774, -2.2264740728143884]</t>
+          <t>[2.5220793875665803, 3.729658545703198]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.013944566670034e-13</v>
+        <v>1.381117442633695e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>2.013944566670034e-13</v>
+        <v>1.381117442633695e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>59.80622877891053</v>
+        <v>48.56907141658719</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.521256200595225, 74.09120135722583]</t>
+          <t>[37.06724100096404, 60.070901832210346]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.163913989278626e-11</v>
+        <v>6.419997866657923e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>8.163913989278626e-11</v>
+        <v>6.419997866657923e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>11.345745745746</v>
+        <v>12.87913913913943</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.128168168168378</v>
+        <v>10.41619619619643</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.56332332332363</v>
+        <v>15.34208208208242</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.934701234641906e-05</v>
+        <v>0.03928183839056287</v>
       </c>
       <c r="I9" t="n">
-        <v>8.934701234641906e-05</v>
+        <v>0.03928183839056287</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.89830406496971</v>
+        <v>29.79526024661671</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[20.682388758436787, 65.11421937150264]</t>
+          <t>[2.6348522404648094, 56.95566825276862]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0003287074098095033</v>
+        <v>0.03227170641516519</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0003287074098095033</v>
+        <v>0.03227170641516519</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.880579450138389</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.4717900796427736, -2.289368820634004]</t>
+          <t>[-4.314579700425622, -1.7987897876410028]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>9.350298313393068e-13</v>
+        <v>1.306991498206678e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>9.350298313393068e-13</v>
+        <v>1.306991498206678e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>57.93921335225882</v>
+        <v>50.99773961505379</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.69897537960509, 70.17945132491255]</t>
+          <t>[35.44454079446382, 66.55093843564376]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.27062812996337e-12</v>
+        <v>3.946921989239627e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>2.27062812996337e-12</v>
+        <v>3.946921989239627e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>11.80988988989016</v>
+        <v>12.46864864864893</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.386026026026242</v>
+        <v>7.337517517517683</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.23375375375407</v>
+        <v>17.59977977978017</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06899476600180277</v>
+        <v>0.0006301998591198288</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06899476600180277</v>
+        <v>0.0006301998591198288</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>22.13340002048863</v>
+        <v>37.46242616282227</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.543304508309596, 46.810104549286855]</t>
+          <t>[15.791368139313263, 59.13348418633127]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07752706019588129</v>
+        <v>0.001119960324487135</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07752706019588129</v>
+        <v>0.001119960324487135</v>
       </c>
       <c r="P10" t="n">
-        <v>1.729605565039425</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.1823947686768843, 3.2768163614019663]</t>
+          <t>[2.232763547596349, 3.6416058987557367]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02928020859064073</v>
+        <v>9.145151302902832e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02928020859064073</v>
+        <v>9.145151302902832e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>48.1599693879196</v>
+        <v>55.18359740633262</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[34.41022388185445, 61.90971489398474]</t>
+          <t>[42.65072867902526, 67.71646613363997]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.456888744845514e-09</v>
+        <v>1.946132144325929e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>8.456888744845514e-09</v>
+        <v>1.946132144325929e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>18.66890890890934</v>
+        <v>13.64880880880911</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.32560560560589</v>
+        <v>10.77537537537561</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.01221221221279</v>
+        <v>16.52224224224261</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0005154038836565622</v>
+        <v>0.0002977775069856747</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005154038836565622</v>
+        <v>0.0002977775069856747</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.1508577517246</v>
+        <v>44.76471722542993</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[16.49550118235308, 75.80621432109612]</t>
+          <t>[16.605168997150102, 72.92426545370976]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.003028999369583563</v>
+        <v>0.002507475860896502</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003028999369583563</v>
+        <v>0.002507475860896502</v>
       </c>
       <c r="P11" t="n">
-        <v>2.584974135386196</v>
+        <v>2.081816152829273</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 3.2516584622741194]</t>
+          <t>[1.478026573760964, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>6.538394270449999e-10</v>
+        <v>1.231825685898968e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>6.538394270449999e-10</v>
+        <v>1.231825685898968e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>58.84237691282647</v>
+        <v>60.70110345930016</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.2554717922999, 74.42928203335305]</t>
+          <t>[45.802078569646426, 75.6001283489539]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.309852670772216e-09</v>
+        <v>1.732884946648028e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.309852670772216e-09</v>
+        <v>1.732884946648028e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>15.16204204204239</v>
+        <v>17.13797797797836</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.42874874874903</v>
+        <v>14.67503503503536</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.89533533533574</v>
+        <v>19.60092092092135</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009644787094692742</v>
+        <v>0.00208668504259657</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009644787094692742</v>
+        <v>0.00208668504259657</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>30.77451538200557</v>
+        <v>43.06811796255133</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[5.011705967448577, 56.53732479656256]</t>
+          <t>[13.24269256915693, 72.89354335594572]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.02030237688166325</v>
+        <v>0.005624985652465941</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02030237688166325</v>
+        <v>0.005624985652465941</v>
       </c>
       <c r="P12" t="n">
-        <v>1.905710858934349</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.8239211964369622, 2.9875005214317367]</t>
+          <t>[0.9497106920761933, 2.6352899336418893]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0009209972470587413</v>
+        <v>9.540116799744425e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0009209972470587413</v>
+        <v>9.540116799744425e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>53.9389718912029</v>
+        <v>56.47503150676456</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.73488155268462, 68.14306222972118]</t>
+          <t>[39.59249702518483, 73.35756598834429]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.125295190362863e-09</v>
+        <v>2.499546947198894e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>1.125295190362863e-09</v>
+        <v>2.499546947198894e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.94690690690732</v>
+        <v>18.31813813813854</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.51175175175205</v>
+        <v>14.88028028028061</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.38206206206258</v>
+        <v>21.75599599599648</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.76000000000059</v>
+        <v>25.63000000000057</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002864028821704112</v>
+        <v>7.881273630716557e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002864028821704112</v>
+        <v>7.881273630716557e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.43345241838449</v>
+        <v>45.80726281351437</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[17.887732911942507, 66.97917192482647]</t>
+          <t>[20.789400268588025, 70.82512535844072]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.00111951723781023</v>
+        <v>0.0006069018876757593</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00111951723781023</v>
+        <v>0.0006069018876757593</v>
       </c>
       <c r="P13" t="n">
-        <v>1.352237078121732</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 2.0063424554457328]</t>
+          <t>[0.6226580034141929, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0001395988097865342</v>
+        <v>0.0001526951013641753</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0001395988097865342</v>
+        <v>0.0001526951013641753</v>
       </c>
       <c r="T13" t="n">
-        <v>54.53944036851784</v>
+        <v>63.02265973336081</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[40.596740089645365, 68.48214064739031]</t>
+          <t>[49.38764227388151, 76.65767719284011]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.181761686401387e-10</v>
+        <v>4.658273766722232e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>5.181761686401387e-10</v>
+        <v>4.658273766722232e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>20.21605605605652</v>
+        <v>20.67845845845892</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.53433433433474</v>
+        <v>18.26682682682723</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.89777777777831</v>
+        <v>23.0900900900906</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_1_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_1_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001097546089009471</v>
+        <v>0.01432290475265441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001097546089009471</v>
+        <v>0.01432290475265441</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>51.3595395211851</v>
+        <v>38.27571608410943</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[26.351031116638424, 76.36804792573177]</t>
+          <t>[5.86058805958011, 70.69084410863876]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0001522200079715486</v>
+        <v>0.02170146173235188</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001522200079715486</v>
+        <v>0.02170146173235188</v>
       </c>
       <c r="P2" t="n">
-        <v>1.490605523324886</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8993948938205003, 2.081816152829272]</t>
+          <t>[0.044026323473730145, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.089210066091312e-06</v>
+        <v>0.04181836155055962</v>
       </c>
       <c r="S2" t="n">
-        <v>7.089210066091312e-06</v>
+        <v>0.04181836155055962</v>
       </c>
       <c r="T2" t="n">
-        <v>64.81571568110809</v>
+        <v>57.79001025419196</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.81730060115501, 79.81413076106116]</t>
+          <t>[40.35908743290821, 75.2209330754757]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.33377769834442e-11</v>
+        <v>3.069652221299179e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>3.33377769834442e-11</v>
+        <v>3.069652221299179e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>17.13165165165171</v>
+        <v>18.45617617617625</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.01829829829835</v>
+        <v>14.53029029029035</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.24500500500507</v>
+        <v>22.38206206206215</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02405451339997511</v>
+        <v>0.000400696004108525</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02405451339997511</v>
+        <v>0.000400696004108525</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>29.16022859184519</v>
+        <v>39.87890968864955</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[2.291902773396039, 56.02855441029434]</t>
+          <t>[14.482104060053288, 65.27571531724581]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0340656162125923</v>
+        <v>0.002799415415336126</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0340656162125923</v>
+        <v>0.002799415415336126</v>
       </c>
       <c r="P3" t="n">
-        <v>1.842816111114733</v>
+        <v>2.39628989192735</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 3.050395269251351]</t>
+          <t>[1.8050792624229652, 2.987500521431735]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.003586295186198019</v>
+        <v>1.99503080722252e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003586295186198019</v>
+        <v>1.99503080722252e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>56.92540049893095</v>
+        <v>53.9411985203615</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.62456117249222, 71.22623982536969]</t>
+          <t>[40.668855217036324, 67.21354182368668]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.253326497087983e-10</v>
+        <v>1.853053266387406e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.253326497087983e-10</v>
+        <v>1.853053266387406e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>15.87263263263268</v>
+        <v>13.94366366366371</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.55599599599603</v>
+        <v>11.82278278278283</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.18926926926934</v>
+        <v>16.0645445445446</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.13237495686014e-05</v>
+        <v>8.935392132869424e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>3.13237495686014e-05</v>
+        <v>8.935392132869424e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.23120380098898</v>
+        <v>38.35751349424538</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[21.7040612407, 74.75834636127796]</t>
+          <t>[16.4577794642607, 60.25724752423007]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0006558070537809879</v>
+        <v>0.0009782167161911381</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006558070537809879</v>
+        <v>0.0009782167161911381</v>
       </c>
       <c r="P4" t="n">
-        <v>2.421447791055196</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 2.924605773612119]</t>
+          <t>[1.7799213632951183, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.368904989362818e-12</v>
+        <v>4.087929994511796e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.368904989362818e-12</v>
+        <v>4.087929994511796e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>59.20191066838621</v>
+        <v>49.53035405731047</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.65280598364599, 72.75101535312643]</t>
+          <t>[38.09033033231253, 60.970377782308404]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.429345613563783e-11</v>
+        <v>3.160693928805358e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.429345613563783e-11</v>
+        <v>3.160693928805358e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>13.80424424424429</v>
+        <v>14.21441441441447</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.00564564564569</v>
+        <v>12.27403403403408</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.60284284284289</v>
+        <v>16.15479479479486</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.121321586394224e-06</v>
+        <v>1.789697391396672e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>6.121321586394224e-06</v>
+        <v>1.789697391396672e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>43.3976678894764</v>
+        <v>53.14093883463381</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.257125755082477, 62.53821002387033]</t>
+          <t>[28.93700047114696, 77.34487719812067]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.83438594315777e-05</v>
+        <v>6.122961526067172e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>3.83438594315777e-05</v>
+        <v>6.122961526067172e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.974921571867812</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.446605690183042, 3.5032374535525816]</t>
+          <t>[2.1069740519571187, 3.012658420559582]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>7.549516567451064e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>8.659739592076221e-15</v>
+        <v>7.549516567451064e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>57.16036169620677</v>
+        <v>61.02308782196104</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.86159471067129, 68.45912868174224]</t>
+          <t>[48.19714176614151, 73.84903387778057]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.879918525877656e-13</v>
+        <v>1.942890293094024e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.879918525877656e-13</v>
+        <v>1.942890293094024e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>11.82578578578582</v>
+        <v>13.35703703703709</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.93725725725729</v>
+        <v>11.73253253253258</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.71431431431436</v>
+        <v>14.9815415415416</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01945163481364709</v>
+        <v>1.377309884698086e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01945163481364709</v>
+        <v>1.377309884698086e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>27.19800559277141</v>
+        <v>55.35057984501301</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[2.844485381484084, 51.551525804058734]</t>
+          <t>[32.33522951884798, 78.36593017117804]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02942959339717999</v>
+        <v>1.544581469481443e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02942959339717999</v>
+        <v>1.544581469481443e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.905737349266235</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.138474406530699, -1.6730002920017717]</t>
+          <t>[2.3459740936716575, 3.327132159657659]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="S6" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="T6" t="n">
-        <v>54.63288848940283</v>
+        <v>59.21202791205695</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.134330555364826, 68.13144642344083]</t>
+          <t>[45.90158950216076, 72.52246632195315]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.075435379111923e-10</v>
+        <v>1.444067088129941e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.075435379111923e-10</v>
+        <v>1.444067088129941e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>10.38690690690694</v>
+        <v>12.36428428428433</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.980340340340359</v>
+        <v>10.60440440440444</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.79347347347352</v>
+        <v>14.12416416416422</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.46000000000007</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.141585476260865e-06</v>
+        <v>4.434410753040297e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>1.141585476260865e-06</v>
+        <v>4.434410753040297e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>54.2763601707308</v>
+        <v>51.37781654197717</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.012033697429715, 77.54068664403188]</t>
+          <t>[30.64723573478649, 72.10839734916784]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.488435445791026e-05</v>
+        <v>9.457756072750456e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.488435445791026e-05</v>
+        <v>9.457756072750456e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.805105752754851</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.2956847857478513, -2.31452671976185]</t>
+          <t>[-3.1573163405446976, -2.2767898710700805]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>65.62917440210805</v>
+        <v>57.67629257157326</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.818201093497365, 78.44014771071873]</t>
+          <t>[46.12292121082589, 69.22966393232062]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.931788062847772e-13</v>
+        <v>4.383160501220118e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.931788062847772e-13</v>
+        <v>4.383160501220118e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>10.02718718718722</v>
+        <v>9.747027027027064</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.273553553553583</v>
+        <v>8.167647647647678</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.78082082082086</v>
+        <v>11.32640640640645</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002090287051502715</v>
+        <v>0.003745094102533764</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002090287051502715</v>
+        <v>0.003745094102533764</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.74762089259059</v>
+        <v>41.16789753902565</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.246136902628812, 56.249104882552366]</t>
+          <t>[9.220018924804293, 73.115776153247]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001657479154211217</v>
+        <v>0.01271384383993279</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001657479154211217</v>
+        <v>0.01271384383993279</v>
       </c>
       <c r="P8" t="n">
-        <v>3.125868966634889</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.5220793875665803, 3.729658545703198]</t>
+          <t>[-3.0818426431611576, -1.7233160902574638]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.381117442633695e-13</v>
+        <v>6.675695329860787e-09</v>
       </c>
       <c r="S8" t="n">
-        <v>1.381117442633695e-13</v>
+        <v>6.675695329860787e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>48.56907141658719</v>
+        <v>50.76978368821792</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[37.06724100096404, 60.070901832210346]</t>
+          <t>[34.72989618416736, 66.80967119226848]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.419997866657923e-11</v>
+        <v>8.64835065783609e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>6.419997866657923e-11</v>
+        <v>8.64835065783609e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>12.87913913913943</v>
+        <v>9.938118118118354</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.41619619619643</v>
+        <v>7.128388388388558</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.34208208208242</v>
+        <v>12.74784784784815</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03928183839056287</v>
+        <v>0.01049164389686619</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03928183839056287</v>
+        <v>0.01049164389686619</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>29.79526024661671</v>
+        <v>33.14828711753755</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[2.6348522404648094, 56.95566825276862]</t>
+          <t>[7.009566301575397, 59.2870079334997]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.03227170641516519</v>
+        <v>0.01409803039653856</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03227170641516519</v>
+        <v>0.01409803039653856</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.056684744033312</v>
+        <v>-2.84284260144662</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-4.314579700425622, -1.7987897876410028]</t>
+          <t>[-3.761105919613005, -1.9245792832802344]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.306991498206678e-05</v>
+        <v>1.395196786990738e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>1.306991498206678e-05</v>
+        <v>1.395196786990738e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>50.99773961505379</v>
+        <v>62.56789344695139</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[35.44454079446382, 66.55093843564376]</t>
+          <t>[48.3266115454427, 76.80917534846007]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.946921989239627e-08</v>
+        <v>2.07431849474915e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.946921989239627e-08</v>
+        <v>2.07431849474915e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>12.46864864864893</v>
+        <v>11.75923923923952</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.337517517517683</v>
+        <v>7.960900900901095</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.59977977978017</v>
+        <v>15.55757757757795</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006301998591198288</v>
+        <v>4.732937788243241e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006301998591198288</v>
+        <v>4.732937788243241e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.46242616282227</v>
+        <v>56.63156613541561</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[15.791368139313263, 59.13348418633127]</t>
+          <t>[31.190233146358906, 82.07289912447231]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001119960324487135</v>
+        <v>5.024022207122947e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001119960324487135</v>
+        <v>5.024022207122947e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.937184723176043</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.232763547596349, 3.6416058987557367]</t>
+          <t>[2.333395144107734, 3.3145532100937354]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.145151302902832e-11</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>9.145151302902832e-11</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>55.18359740633262</v>
+        <v>65.80528670747877</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.65072867902526, 67.71646613363997]</t>
+          <t>[51.82943224564944, 79.7811411693081]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.946132144325929e-11</v>
+        <v>2.666755705149626e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.946132144325929e-11</v>
+        <v>2.666755705149626e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>13.64880880880911</v>
+        <v>14.30880880880915</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.77537537537561</v>
+        <v>12.27955955955985</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.52224224224261</v>
+        <v>16.33805805805845</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002977775069856747</v>
+        <v>0.0008725225761061495</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002977775069856747</v>
+        <v>0.0008725225761061495</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.76471722542993</v>
+        <v>32.33232978059551</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[16.605168997150102, 72.92426545370976]</t>
+          <t>[9.657027239375125, 55.007632321815905]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002507475860896502</v>
+        <v>0.006202095076549563</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002507475860896502</v>
+        <v>0.006202095076549563</v>
       </c>
       <c r="P11" t="n">
-        <v>2.081816152829273</v>
+        <v>2.484342538874812</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 2.6856057318975814]</t>
+          <t>[1.8176582119868874, 3.151026865762736]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.231825685898968e-08</v>
+        <v>1.82562964745614e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>1.231825685898968e-08</v>
+        <v>1.82562964745614e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>60.70110345930016</v>
+        <v>50.55458420879813</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.802078569646426, 75.6001283489539]</t>
+          <t>[39.030167888085636, 62.079000529510616]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.732884946648028e-10</v>
+        <v>2.167577228817663e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.732884946648028e-10</v>
+        <v>2.167577228817663e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>17.13797797797836</v>
+        <v>15.71367367367405</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.67503503503536</v>
+        <v>12.95597597597629</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.60092092092135</v>
+        <v>18.47137137137182</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00208668504259657</v>
+        <v>4.006186868910078e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00208668504259657</v>
+        <v>4.006186868910078e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>43.06811796255133</v>
+        <v>63.14077234120398</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[13.24269256915693, 72.89354335594572]</t>
+          <t>[41.26347875203771, 85.01806593037024]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.005624985652465941</v>
+        <v>5.912878242586572e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005624985652465941</v>
+        <v>5.912878242586572e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792500312859041</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 2.6352899336418893]</t>
+          <t>[1.1132370364071944, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>9.540116799744425e-05</v>
+        <v>1.146632100379463e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>9.540116799744425e-05</v>
+        <v>1.146632100379463e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>56.47503150676456</v>
+        <v>68.05893297901753</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.59249702518483, 73.35756598834429]</t>
+          <t>[53.57932727494277, 82.53853868309228]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.499546947198894e-08</v>
+        <v>2.810862653745971e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>2.499546947198894e-08</v>
+        <v>2.810862653745971e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>18.31813813813854</v>
+        <v>19.51201201201248</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.88028028028061</v>
+        <v>17.63885885885928</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.75599599599648</v>
+        <v>21.38516516516567</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.63000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>7.881273630716557e-05</v>
+        <v>0.0001988824089914631</v>
       </c>
       <c r="I13" t="n">
-        <v>7.881273630716557e-05</v>
+        <v>0.0001988824089914631</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>45.80726281351437</v>
+        <v>41.39459648716476</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[20.789400268588025, 70.82512535844072]</t>
+          <t>[18.87157227654633, 63.91762069778319]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0006069018876757593</v>
+        <v>0.000582022853869546</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0006069018876757593</v>
+        <v>0.000582022853869546</v>
       </c>
       <c r="P13" t="n">
-        <v>1.213868632918579</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.8050792624229643]</t>
+          <t>[0.7232895999255788, 2.056658253701425]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.0001526951013641753</v>
+        <v>0.0001247960470192044</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0001526951013641753</v>
+        <v>0.0001247960470192044</v>
       </c>
       <c r="T13" t="n">
-        <v>63.02265973336081</v>
+        <v>60.63601147297499</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.38764227388151, 76.65767719284011]</t>
+          <t>[47.33913452158076, 73.93288842436921]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.658273766722232e-12</v>
+        <v>6.964651078078532e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>4.658273766722232e-12</v>
+        <v>6.964651078078532e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>20.67845845845892</v>
+        <v>20.24046046046095</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.26682682682723</v>
+        <v>17.48276276276319</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.0900900900906</v>
+        <v>22.99815815815871</v>
       </c>
     </row>
   </sheetData>
